--- a/Salle/Twitter/Intermedias/conteos_terminos.xlsx
+++ b/Salle/Twitter/Intermedias/conteos_terminos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Anio</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sistema judicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Género</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otros</t>
   </si>
   <si>
     <t xml:space="preserve">2016</t>
@@ -413,7 +419,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>253</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3">
@@ -446,81 +452,81 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>862</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
       <c r="C6" t="n">
-        <v>226</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>1174</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>210</v>
+        <v>866</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -528,57 +534,57 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
       <c r="C13" t="n">
-        <v>732</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>119</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>235</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>1063</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18">
@@ -586,10 +592,10 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>195</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -597,32 +603,32 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>677</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>963</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22">
@@ -630,10 +636,10 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22" t="n">
-        <v>564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -641,10 +647,10 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>863</v>
+        <v>686</v>
       </c>
     </row>
     <row r="24">
@@ -652,10 +658,10 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>271</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -663,10 +669,10 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25" t="n">
-        <v>1572</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26">
@@ -677,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>702</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
@@ -688,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>119</v>
+        <v>677</v>
       </c>
     </row>
     <row r="28">
@@ -699,7 +705,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="n">
-        <v>647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -710,29 +716,29 @@
         <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>532</v>
+        <v>640</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C30" t="n">
-        <v>1179</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>66</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32">
@@ -740,10 +746,10 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C32" t="n">
-        <v>212</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33">
@@ -751,98 +757,318 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>393</v>
+        <v>863</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>1400</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>398</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36" t="n">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C37" t="n">
-        <v>709</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38" t="n">
-        <v>511</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="n">
-        <v>47</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40" t="n">
-        <v>28</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
         <v>16</v>
       </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="n">
-        <v>198</v>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="n">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="n">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
